--- a/Model Evaluation.xlsx
+++ b/Model Evaluation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0753709-55C7-4D06-99DC-CA51D85DD8ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20691E23-FECE-4433-A720-DA22E4DB9BFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,13 +235,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -591,7 +591,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,7 +634,7 @@
       <c r="B2" s="4">
         <v>0.89</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>0.92</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -657,7 +657,7 @@
       <c r="B3" s="4">
         <v>0.85</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>0.91</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -680,7 +680,7 @@
       <c r="B4" s="4">
         <v>0.87</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0.88</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -703,7 +703,7 @@
       <c r="B5" s="4">
         <v>0.8</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.86</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -726,7 +726,7 @@
       <c r="B6" s="4">
         <v>0.85</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>0.85</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -749,7 +749,7 @@
       <c r="B7" s="4">
         <v>0.84</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>0.83</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -772,7 +772,7 @@
       <c r="B8" s="4">
         <v>0.85</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>0.9</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -795,7 +795,7 @@
       <c r="B9" s="4">
         <v>0.85</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>0.9</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -818,7 +818,7 @@
       <c r="B10" s="4">
         <v>0.89</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>0.9</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -841,7 +841,7 @@
       <c r="B11" s="4">
         <v>0.85</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>0.91</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -864,7 +864,7 @@
       <c r="B12" s="4">
         <v>0.84</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>0.86</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -881,29 +881,30 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>0.87</v>
       </c>
       <c r="C13" s="7">
         <v>0.87</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>